--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1087.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1087.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.113609216855635</v>
+        <v>1.17949914932251</v>
       </c>
       <c r="B1">
-        <v>2.206318890692324</v>
+        <v>2.415983200073242</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.832267352778</v>
+        <v>2.333372354507446</v>
       </c>
       <c r="E1">
-        <v>1.211044852872316</v>
+        <v>1.194314479827881</v>
       </c>
     </row>
   </sheetData>
